--- a/biology/Zoologie/Grue_antigone/Grue_antigone.xlsx
+++ b/biology/Zoologie/Grue_antigone/Grue_antigone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antigone antigone
 La Grue antigone (Antigone antigone) est une espèce de grands échassiers de la famille des gruidés.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grue antigone mesure de 142 à 176 cm de long et son envergure est de 227 à 280 cm. Elle pèse entre 7,1 et 10,3 kg. C'est la plus grande des grues.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve au Pakistan, Népal, Inde, Birmanie et au nord de l'Australie.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans les régions découvertes et est très attaché au site de nidification.
 </t>
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Végétaux, vers, insectes, petits rongeurs.
 </t>
@@ -636,7 +656,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">30 jours d'incubation, 1 à 3 œufs par femelle.
 Au moment des parades nuptiales, les grues dansent souvent en effectuant de petits sauts et en décrivant des cercles. Leur cri peut être très fort et se faire entendre à plusieurs kilomètres à la ronde.
@@ -668,14 +690,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite  par le naturaliste suédois Carl von Linné en 1758 sous le nom initial d'Ardea antigone[1].
-Synonymie
-Ardea antigone Linné, 1758 protonyme
-Grus sharpei
-Sous-espèces
-D'après Alan P. Peterson, 3 sous-espèces ont été décrites :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite  par le naturaliste suédois Carl von Linné en 1758 sous le nom initial d'Ardea antigone.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grue_antigone</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grue_antigone</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ardea antigone Linné, 1758 protonyme
+Grus sharpei</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grue_antigone</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grue_antigone</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>D'après Alan P. Peterson, 3 sous-espèces ont été décrites :
 Grus antigone antigone (Linnaeus) 1758
 Grus antigone gillae Schodde, Blackman, &amp; Haffenden 1989
 Grus antigone sharpii Blanford 1895</t>
